--- a/FedExApplication/bin/TestFiles/FedExShipments_PreProd.xlsx
+++ b/FedExApplication/bin/TestFiles/FedExShipments_PreProd.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="510" windowWidth="19815" windowHeight="9660" tabRatio="614"/>
+    <workbookView tabRatio="614" windowHeight="9660" windowWidth="19815" xWindow="390" yWindow="510"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="185">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -494,6 +494,81 @@
   </si>
   <si>
     <t>320017962535</t>
+  </si>
+  <si>
+    <t>320017962708</t>
+  </si>
+  <si>
+    <t>320017962719</t>
+  </si>
+  <si>
+    <t>320017962741</t>
+  </si>
+  <si>
+    <t>320017962774</t>
+  </si>
+  <si>
+    <t>320017962811</t>
+  </si>
+  <si>
+    <t>320017962833</t>
+  </si>
+  <si>
+    <t>320017962866</t>
+  </si>
+  <si>
+    <t>320017962888</t>
+  </si>
+  <si>
+    <t>320017962936</t>
+  </si>
+  <si>
+    <t>320017962958</t>
+  </si>
+  <si>
+    <t>320017962991</t>
+  </si>
+  <si>
+    <t>320017963016</t>
+  </si>
+  <si>
+    <t>320017963049</t>
+  </si>
+  <si>
+    <t>320017963060</t>
+  </si>
+  <si>
+    <t>320017963093</t>
+  </si>
+  <si>
+    <t>320017963119</t>
+  </si>
+  <si>
+    <t>320017963152</t>
+  </si>
+  <si>
+    <t>320017963174</t>
+  </si>
+  <si>
+    <t>320017963200</t>
+  </si>
+  <si>
+    <t>320017963222</t>
+  </si>
+  <si>
+    <t>320017963255</t>
+  </si>
+  <si>
+    <t>320017963266</t>
+  </si>
+  <si>
+    <t>320017963288</t>
+  </si>
+  <si>
+    <t>320017963299</t>
+  </si>
+  <si>
+    <t>320017963314</t>
   </si>
 </sst>
 </file>
@@ -557,33 +632,33 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="2" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="8" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="8" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -636,7 +711,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -650,10 +725,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -811,7 +886,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -820,13 +895,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -836,7 +911,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -845,7 +920,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -854,7 +929,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -864,12 +939,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -900,7 +975,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -919,7 +994,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -931,8 +1006,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H16" workbookViewId="0">
       <selection activeCell="P31" sqref="P31"/>
@@ -1058,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Q2" t="s">
         <v>53</v>
@@ -1111,7 +1186,7 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="Q3" t="s">
         <v>55</v>
@@ -1164,7 +1239,7 @@
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="Q4" t="s">
         <v>56</v>
@@ -1217,7 +1292,7 @@
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="Q5" t="s">
         <v>57</v>
@@ -1270,7 +1345,7 @@
         <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="Q6" t="s">
         <v>58</v>
@@ -1323,7 +1398,7 @@
         <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="Q7" t="s">
         <v>52</v>
@@ -1376,7 +1451,7 @@
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="Q8" t="s">
         <v>53</v>
@@ -1429,7 +1504,7 @@
         <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="Q9" t="s">
         <v>59</v>
@@ -1482,7 +1557,7 @@
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="Q10" t="s">
         <v>55</v>
@@ -1535,7 +1610,7 @@
         <v>4</v>
       </c>
       <c r="P11" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="Q11" t="s">
         <v>60</v>
@@ -1588,7 +1663,7 @@
         <v>2</v>
       </c>
       <c r="P12" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="Q12" t="s">
         <v>61</v>
@@ -1641,7 +1716,7 @@
         <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="Q13" t="s">
         <v>62</v>
@@ -1694,7 +1769,7 @@
         <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="Q14" t="s">
         <v>63</v>
@@ -1747,7 +1822,7 @@
         <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="Q15" t="s">
         <v>64</v>
@@ -1800,7 +1875,7 @@
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="Q16" t="s">
         <v>56</v>
@@ -1853,7 +1928,7 @@
         <v>4</v>
       </c>
       <c r="P17" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q17" t="s">
         <v>65</v>
@@ -1906,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="Q18" t="s">
         <v>69</v>
@@ -1959,7 +2034,7 @@
         <v>3</v>
       </c>
       <c r="P19" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="Q19" t="s">
         <v>66</v>
@@ -2012,7 +2087,7 @@
         <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="Q20" t="s">
         <v>69</v>
@@ -2065,7 +2140,7 @@
         <v>3</v>
       </c>
       <c r="P21" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="Q21" t="s">
         <v>67</v>
@@ -2118,7 +2193,7 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="Q22" t="s">
         <v>71</v>
@@ -2171,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="Q23" t="s">
         <v>72</v>
@@ -2224,7 +2299,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="Q24" t="s">
         <v>73</v>
@@ -2277,7 +2352,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="Q25" t="s">
         <v>61</v>
@@ -2330,7 +2405,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="Q26" t="s">
         <v>68</v>
@@ -2342,35 +2417,35 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="R2:R7">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule dxfId="6" operator="equal" priority="7" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R24 R27:R1048576">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule dxfId="5" operator="equal" priority="5" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule dxfId="4" operator="equal" priority="6" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R25">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule dxfId="3" operator="equal" priority="3" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule dxfId="2" operator="equal" priority="4" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R26">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule dxfId="1" operator="equal" priority="1" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule dxfId="0" operator="equal" priority="2" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>